--- a/municipal/ENG/Education/Preschool and Education Institutions/Imereti/Vani.xlsx
+++ b/municipal/ENG/Education/Preschool and Education Institutions/Imereti/Vani.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social Statistic\სკოლამდელი აღზრდისა და განათლების დაწესებულებები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Preschool and Education Institutions\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,7 +95,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>municipality</t>
     </r>
   </si>
 </sst>
@@ -333,10 +343,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -625,7 +635,7 @@
   <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,16 +648,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -706,11 +716,11 @@
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="11">
         <v>24</v>
       </c>
